--- a/Process/config/Config.xlsx
+++ b/Process/config/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laburo\VORTEX\PROYECTOS\01_RecupercionSoportes\Process\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laburo\VORTEX\PROYECTOS\01_RecuperacionSoportes\Process\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D0627E-5F2C-462D-8738-603D5831F924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F24EEA5-27E7-412D-98D0-A2576756C8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="2196" windowWidth="18624" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1776" windowWidth="18624" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Valor</t>
   </si>
@@ -129,9 +129,6 @@
     <t>CarpetaCompartida</t>
   </si>
   <si>
-    <t>C:/Users/lucas/Desktop/SharedFolderPrueba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ruta carpeta compartida. </t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>Ruta al archivo insumo.</t>
-  </si>
-  <si>
-    <t>//10.238.99.5/temporales/ROCKETBOT/Copia de Inusmo busqueda masiva - UT Ticenergi.xlsx</t>
   </si>
   <si>
     <t>FALLO OBTENCION INSUMO</t>
@@ -179,6 +173,30 @@
   </si>
   <si>
     <t>URL de workmanager</t>
+  </si>
+  <si>
+    <t>O365</t>
+  </si>
+  <si>
+    <t>Credenciales O365</t>
+  </si>
+  <si>
+    <t>TenantId</t>
+  </si>
+  <si>
+    <t>024e2966-f777-426e-9ffb-80231972a6b1</t>
+  </si>
+  <si>
+    <t>Tenant ID de Azure</t>
+  </si>
+  <si>
+    <t>CredencialO365</t>
+  </si>
+  <si>
+    <t>//10.238.99.5/temporales/ROCKETBOT/Compartida</t>
+  </si>
+  <si>
+    <t>//10.238.99.5/temporales/ROCKETBOT/Inusmo busqueda masiva - UT Ticenergi.xlsx</t>
   </si>
 </sst>
 </file>
@@ -269,7 +287,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -303,6 +321,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,10 +546,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="117" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -615,32 +636,32 @@
         <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4">
         <v>500</v>
@@ -649,21 +670,49 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
@@ -724,7 +773,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>22</v>
@@ -738,7 +787,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
@@ -752,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>12</v>
@@ -760,16 +809,16 @@
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Process/config/Config.xlsx
+++ b/Process/config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laburo\VORTEX\PROYECTOS\01_RecuperacionSoportes\Process\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F24EEA5-27E7-412D-98D0-A2576756C8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FE308E-2B12-4A80-A1C0-8936943B6B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1776" windowWidth="18624" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Valor</t>
   </si>
@@ -197,6 +197,16 @@
   </si>
   <si>
     <t>//10.238.99.5/temporales/ROCKETBOT/Inusmo busqueda masiva - UT Ticenergi.xlsx</t>
+  </si>
+  <si>
+    <t>FALLO LOGIN WORKMANAGER</t>
+  </si>
+  <si>
+    <t>[ERROR] | Fallo al realizar Login en workmanager | [NombreProceso] | [Fecha]</t>
+  </si>
+  <si>
+    <t>Estimados,
+Se ha producido un error al intentar iniciar sesión en WorkManager. Por favor, verificar si las credenciales de acceso han sido modificadas.</t>
   </si>
 </sst>
 </file>
@@ -548,8 +558,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="117" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A2" zoomScale="117" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -722,22 +732,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFF535B-528C-3144-A844-11606A8F8BD2}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="59" style="7" customWidth="1"/>
-    <col min="4" max="4" width="66" style="7" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -819,12 +829,27 @@
       </c>
       <c r="D6" s="8" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{6D18D2D2-0A28-479C-A039-33D2F8A14053}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{FE32BF4A-8A8F-41DD-9F08-4D36175CB8F9}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{CA61B85D-0AAF-4D71-AF99-09A397CB6E30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/config/Config.xlsx
+++ b/Process/config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laburo\VORTEX\PROYECTOS\01_RecuperacionSoportes\Process\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FE308E-2B12-4A80-A1C0-8936943B6B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B55DD2-B251-4FB6-B5CA-440944FEDD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -558,8 +558,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="117" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="117" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -674,7 +674,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -734,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFF535B-528C-3144-A844-11606A8F8BD2}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Process/config/Config.xlsx
+++ b/Process/config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laburo\VORTEX\PROYECTOS\01_RecuperacionSoportes\Process\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B55DD2-B251-4FB6-B5CA-440944FEDD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EE9018-EBC1-4748-A5EC-B34A24311D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>Valor</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>REPORTE</t>
-  </si>
-  <si>
-    <t>soporte@soporte.com</t>
   </si>
   <si>
     <t>Estimados, 
@@ -207,6 +204,42 @@
   <si>
     <t>Estimados,
 Se ha producido un error al intentar iniciar sesión en WorkManager. Por favor, verificar si las credenciales de acceso han sido modificadas.</t>
+  </si>
+  <si>
+    <t>contabilidad.finanzas@energizan,julian.lopez@energizando.com,yhonatan.ospina@energizando.com</t>
+  </si>
+  <si>
+    <t>FALLO AL VOLCAR INFORMACION DE SEGUIMIENTO</t>
+  </si>
+  <si>
+    <t>[ERROR] | Fallo al obtener datos a procesar | [NombreProceso] | [Fecha]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimados,
+Se ha producido un error al intentar obtener los datos necesarios para el procesamiento del flujo.
+</t>
+  </si>
+  <si>
+    <t>FALLO EN TRATAMIENTO DE ITEM</t>
+  </si>
+  <si>
+    <t>[ERROR] | Fallo al procesar el item [TipoDoc]-[NroDoc] | [NombreProceso] | [Fecha]</t>
+  </si>
+  <si>
+    <t>Estimados,
+Se ha producido un error al procesar el ítem [TipoDoc]-[NroDoc] dentro del flujo [NombreProceso].
+Por favor, verificar si el item presenta inconsistencias</t>
+  </si>
+  <si>
+    <t>FALLO EN ACTUALIZACION DE REPORTE</t>
+  </si>
+  <si>
+    <t>[ERROR] | Fallo en la actualizacion de reporte | [NombreProceso] | [Fecha]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimados,
+Se ha producido un error durante la actualización del reporte correspondiente al proceso [NombreProceso], ejecutado el día [Fecha].
+</t>
   </si>
 </sst>
 </file>
@@ -297,7 +330,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -320,9 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -558,8 +588,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="117" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A2" zoomScale="117" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -573,13 +603,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -587,91 +617,91 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4">
         <v>200</v>
@@ -680,49 +710,49 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -732,32 +762,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFF535B-528C-3144-A844-11606A8F8BD2}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="62.77734375" style="7" customWidth="1"/>
     <col min="3" max="3" width="58.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -765,91 +795,135 @@
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
+      <c r="B4" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
+      <c r="B5" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>56</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{6D18D2D2-0A28-479C-A039-33D2F8A14053}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{FE32BF4A-8A8F-41DD-9F08-4D36175CB8F9}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{CA61B85D-0AAF-4D71-AF99-09A397CB6E30}"/>
+    <hyperlink ref="B3:B7" r:id="rId2" display="contabilidad.finanzas@energizan,julian.lopez@energizando.com,yhonatan.ospina@energizando.com" xr:uid="{BD4BB669-BAB4-4423-86D8-C91077543777}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{21B5FD5C-B912-4EA6-B912-1B5AA2BA47C3}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{ECA0DA68-3FE1-4FB2-8061-9DA04CD9A8AB}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{E39AC9FF-08A1-4F27-8620-9B2477E25E41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/config/Config.xlsx
+++ b/Process/config/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laburo\VORTEX\PROYECTOS\01_RecuperacionSoportes\Process\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EE9018-EBC1-4748-A5EC-B34A24311D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C893198B-BEF1-4E42-91FE-0270B8C05BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>Valor</t>
   </si>
@@ -240,6 +240,12 @@
     <t xml:space="preserve">Estimados,
 Se ha producido un error durante la actualización del reporte correspondiente al proceso [NombreProceso], ejecutado el día [Fecha].
 </t>
+  </si>
+  <si>
+    <t>DiccionarioNavegacionSiesa</t>
+  </si>
+  <si>
+    <t>{'Financiero': 'f','Contabilidad General': 'g','Contab': 'n','Auditoria de Documentos': 'r','Consulta por Numero': 'n'}</t>
   </si>
 </sst>
 </file>
@@ -330,7 +336,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -365,6 +371,9 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -586,16 +595,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="117" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="117" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="76.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="94.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="23" style="4" customWidth="1"/>
     <col min="4" max="4" width="118.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.6640625" customWidth="1"/>
@@ -704,7 +713,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -753,6 +762,14 @@
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFF535B-528C-3144-A844-11606A8F8BD2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -777,7 +794,7 @@
     <col min="5" max="16384" width="10.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>

--- a/Process/config/Config.xlsx
+++ b/Process/config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C893198B-BEF1-4E42-91FE-0270B8C05BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EE09E9-B957-42F4-8A7F-DD85EEDAC344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>Valor</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>{'Financiero': 'f','Contabilidad General': 'g','Contab': 'n','Auditoria de Documentos': 'r','Consulta por Numero': 'n'}</t>
+  </si>
+  <si>
+    <t>C:/Users/administrator.ENERGIZANDO/Desktop/SISTEMA UNO CLOUD.lnk</t>
+  </si>
+  <si>
+    <t>Diccionario para la nevagacion de Siesa</t>
+  </si>
+  <si>
+    <t>Link  a ejecutable de Siesa 8.5</t>
+  </si>
+  <si>
+    <t>RutaEjecutableSiesa</t>
   </si>
 </sst>
 </file>
@@ -595,10 +607,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="117" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -770,6 +782,26 @@
       </c>
       <c r="B12" s="13" t="s">
         <v>67</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
